--- a/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/metrics/Trial_407__Reeval_Taguchi_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Taguchi_Modell_2_KS_Holdout_seed_42/metrics/Trial_407__Reeval_Taguchi_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -5356,7 +5356,7 @@
                   <c:v>366.3162841796875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>357.7540893554688</c:v>
+                  <c:v>357.7541198730469</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>358.74267578125</c:v>
@@ -5398,7 +5398,7 @@
                   <c:v>347.2814331054688</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>357.4811401367188</c:v>
+                  <c:v>357.4811706542969</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>357.4075927734375</c:v>
@@ -5458,7 +5458,7 @@
                   <c:v>338.1024780273438</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>344.2122192382812</c:v>
+                  <c:v>344.2121887207031</c:v>
                 </c:pt>
                 <c:pt idx="36">
                   <c:v>358.12158203125</c:v>
@@ -5503,7 +5503,7 @@
                   <c:v>356.3787841796875</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>353.0606384277344</c:v>
+                  <c:v>353.0606079101562</c:v>
                 </c:pt>
                 <c:pt idx="51">
                   <c:v>357.8656311035156</c:v>
@@ -5515,7 +5515,7 @@
                   <c:v>354.2822875976562</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>349.9619750976562</c:v>
+                  <c:v>349.9620056152344</c:v>
                 </c:pt>
                 <c:pt idx="55">
                   <c:v>357.1804809570312</c:v>
@@ -5533,7 +5533,7 @@
                   <c:v>347.2565612792969</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>348.8060607910156</c:v>
+                  <c:v>348.8060913085938</c:v>
                 </c:pt>
                 <c:pt idx="61">
                   <c:v>347.9234008789062</c:v>
@@ -5608,7 +5608,7 @@
                   <c:v>346.3557434082031</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>345.9339904785156</c:v>
+                  <c:v>345.9340209960938</c:v>
                 </c:pt>
                 <c:pt idx="86">
                   <c:v>356.39892578125</c:v>
@@ -5645,7 +5645,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5660,7 +5660,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5689,7 +5689,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5704,7 +5704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5733,7 +5733,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5748,7 +5748,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6260,13 +6260,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H712"/>
+  <dimension ref="A1:S712"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6291,8 +6291,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>355.54</v>
       </c>
@@ -6317,8 +6323,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>355.305</v>
       </c>
@@ -6335,16 +6347,22 @@
         <v>360.818</v>
       </c>
       <c r="F3">
-        <v>357.7540893554688</v>
+        <v>357.7541198730469</v>
       </c>
       <c r="G3">
+        <v>371</v>
+      </c>
+      <c r="H3">
+        <v>371</v>
+      </c>
+      <c r="R3">
         <v>368</v>
       </c>
-      <c r="H3">
+      <c r="S3">
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>361.741</v>
       </c>
@@ -6364,13 +6382,19 @@
         <v>358.74267578125</v>
       </c>
       <c r="G4">
+        <v>371</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>368</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>338.792</v>
       </c>
@@ -6390,13 +6414,19 @@
         <v>362.7362060546875</v>
       </c>
       <c r="G5">
+        <v>371</v>
+      </c>
+      <c r="H5">
+        <v>371</v>
+      </c>
+      <c r="R5">
         <v>368</v>
       </c>
-      <c r="H5">
+      <c r="S5">
         <v>368</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>353.734</v>
       </c>
@@ -6416,13 +6446,19 @@
         <v>360.5823364257812</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>371</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
         <v>368</v>
       </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>363.503</v>
       </c>
@@ -6442,13 +6478,19 @@
         <v>352.8383483886719</v>
       </c>
       <c r="G7">
+        <v>371</v>
+      </c>
+      <c r="H7">
+        <v>371</v>
+      </c>
+      <c r="R7">
         <v>368</v>
       </c>
-      <c r="H7">
+      <c r="S7">
         <v>368</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>360.226</v>
       </c>
@@ -6468,7 +6510,7 @@
         <v>344.850341796875</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>359.146</v>
       </c>
@@ -6488,7 +6530,7 @@
         <v>353.7738342285156</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>358.977</v>
       </c>
@@ -6508,7 +6550,7 @@
         <v>361.5389099121094</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>330.382</v>
       </c>
@@ -6528,7 +6570,7 @@
         <v>353.6105346679688</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.115</v>
       </c>
@@ -6548,7 +6590,7 @@
         <v>357.7618408203125</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>358.917</v>
       </c>
@@ -6568,7 +6610,7 @@
         <v>356.7505187988281</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.516</v>
       </c>
@@ -6588,7 +6630,7 @@
         <v>360.1673278808594</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>355.69</v>
       </c>
@@ -6608,7 +6650,7 @@
         <v>361.1568603515625</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>355.401</v>
       </c>
@@ -6645,7 +6687,7 @@
         <v>357.527</v>
       </c>
       <c r="F17">
-        <v>357.4811401367188</v>
+        <v>357.4811706542969</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -7045,7 +7087,7 @@
         <v>357.202</v>
       </c>
       <c r="F37">
-        <v>344.2122192382812</v>
+        <v>344.2121887207031</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -7345,7 +7387,7 @@
         <v>357.671</v>
       </c>
       <c r="F52">
-        <v>353.0606384277344</v>
+        <v>353.0606079101562</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -7425,7 +7467,7 @@
         <v>351.505</v>
       </c>
       <c r="F56">
-        <v>349.9619750976562</v>
+        <v>349.9620056152344</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -7545,7 +7587,7 @@
         <v>339.161</v>
       </c>
       <c r="F62">
-        <v>348.8060607910156</v>
+        <v>348.8060913085938</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -8045,7 +8087,7 @@
         <v>338.53</v>
       </c>
       <c r="F87">
-        <v>345.9339904785156</v>
+        <v>345.9340209960938</v>
       </c>
     </row>
     <row r="88" spans="1:6">
